--- a/data/formatted/basicdata201718.xlsx
+++ b/data/formatted/basicdata201718.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640786E0-86BE-4710-A518-8694D890A311}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B98CFA-063B-4E02-8D54-1C715FCBD66E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201718.xlsx
+++ b/data/formatted/basicdata201718.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B98CFA-063B-4E02-8D54-1C715FCBD66E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E72F8-419E-4C3B-93E5-742C3EFD7308}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201718.xlsx
+++ b/data/formatted/basicdata201718.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E72F8-419E-4C3B-93E5-742C3EFD7308}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5C224-3680-481D-BC84-8431DE48AD64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Arizona State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Auburn NCAA</t>
-  </si>
-  <si>
-    <t>Bucknell NCAA</t>
-  </si>
-  <si>
-    <t>Buffalo NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>Cal State Fullerton NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Clemson NCAA</t>
-  </si>
-  <si>
-    <t>College of Charleston NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Florida State NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Georgia State NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Houston NCAA</t>
-  </si>
-  <si>
-    <t>Iona NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Lipscomb NCAA</t>
-  </si>
-  <si>
-    <t>Long Island University NCAA</t>
-  </si>
-  <si>
-    <t>Loyola (IL) NCAA</t>
-  </si>
-  <si>
-    <t>Marshall NCAA</t>
-  </si>
-  <si>
-    <t>Maryland-Baltimore County NCAA</t>
-  </si>
-  <si>
-    <t>Miami (FL) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Murray State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina Central NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Greensboro NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Radford NCAA</t>
-  </si>
-  <si>
-    <t>Rhode Island NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Seton Hall NCAA</t>
-  </si>
-  <si>
-    <t>South Dakota State NCAA</t>
-  </si>
-  <si>
-    <t>St. Bonaventure NCAA</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas Christian NCAA</t>
-  </si>
-  <si>
-    <t>Texas Southern NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Wright State NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cal State Fullerton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>College of Charleston</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Lipscomb</t>
+  </si>
+  <si>
+    <t>Long Island University</t>
+  </si>
+  <si>
+    <t>Loyola (IL)</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Maryland-Baltimore County</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>North Carolina Central</t>
+  </si>
+  <si>
+    <t>North Carolina-Greensboro</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>St. Bonaventure</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas Christian</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>

--- a/data/formatted/basicdata201718.xlsx
+++ b/data/formatted/basicdata201718.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meha\Documents\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5C224-3680-481D-BC84-8431DE48AD64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{840D8638-1E44-4F4E-83C1-D4A34F236FDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19422" windowHeight="10422"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -243,9 +242,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
@@ -316,12 +312,15 @@
   </si>
   <si>
     <t>Xavier</t>
+  </si>
+  <si>
+    <t>Penn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,16 +665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4408BA50-27EC-4C79-80F2-C817FFDC651F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="A1:AA69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>7</v>
       </c>
@@ -841,7 +840,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>12</v>
       </c>
@@ -924,7 +923,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>34</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>36</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>39</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>56</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>58</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>62</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>69</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>71</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>80</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>96</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>97</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>106</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>109</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>121</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>131</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>140</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>141</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>144</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>150</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>152</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>159</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>166</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>167</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>175</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>177</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>178</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>187</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>190</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>194</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>199</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>201</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>210</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>211</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>212</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>214</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>229</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>232</v>
       </c>
@@ -4327,12 +4326,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>24</v>
@@ -4410,12 +4409,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>21</v>
@@ -4493,12 +4492,12 @@
         <v>624</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -4576,12 +4575,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>23</v>
@@ -4659,12 +4658,12 @@
         <v>596</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>26</v>
@@ -4742,12 +4741,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>22</v>
@@ -4825,12 +4824,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>22</v>
@@ -4908,12 +4907,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>279</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>28</v>
@@ -4991,12 +4990,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -5074,12 +5073,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>295</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>28</v>
@@ -5157,12 +5156,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>23</v>
@@ -5240,12 +5239,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>303</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>26</v>
@@ -5323,12 +5322,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>305</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>22</v>
@@ -5406,12 +5405,12 @@
         <v>574</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>307</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>21</v>
@@ -5489,12 +5488,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -5572,12 +5571,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>27</v>
@@ -5655,12 +5654,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>314</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -5738,12 +5737,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>21</v>
@@ -5821,12 +5820,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>36</v>
@@ -5904,12 +5903,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>21</v>
@@ -5987,12 +5986,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -6070,12 +6069,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>337</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>26</v>
@@ -6153,12 +6152,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>342</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>25</v>
@@ -6236,12 +6235,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>347</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>25</v>
@@ -6319,12 +6318,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>349</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>29</v>
